--- a/data/trans_dic/P68-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P68-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2198294200434791</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09330863122306535</v>
+        <v>0.09330863122306536</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1407242596199414</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2033565193519995</v>
+        <v>0.1997670999038617</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06691941310169136</v>
+        <v>0.06287096539952935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.131257853407421</v>
+        <v>0.1385640584345156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02696091506314792</v>
+        <v>0.02497486734684861</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08845250571919336</v>
+        <v>0.09287891059372425</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05690227768466509</v>
+        <v>0.05728326310191789</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0726942137800685</v>
+        <v>0.06297616074609186</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08291410346055673</v>
+        <v>0.09178866668967661</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1668441754367064</v>
+        <v>0.1647773990120836</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07726645947793656</v>
+        <v>0.07737773411299523</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.112250779064589</v>
+        <v>0.1205654411944111</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0795438704879593</v>
+        <v>0.07937697466721831</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3345954029082358</v>
+        <v>0.3340579567849047</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2220399166491028</v>
+        <v>0.2207200538483603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3279841372993862</v>
+        <v>0.3333308893237698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2220550427937887</v>
+        <v>0.2128401629266795</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1998618008306552</v>
+        <v>0.207766167302728</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1949887594533989</v>
+        <v>0.2004471661291252</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2007429587456602</v>
+        <v>0.1987434352901533</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2907971995934409</v>
+        <v>0.2991968188173193</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2553079859925645</v>
+        <v>0.2605803261536982</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1741929722207934</v>
+        <v>0.1792005755894961</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2296071056476552</v>
+        <v>0.2352033629012579</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2204433863896546</v>
+        <v>0.219802057168573</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.2076119997601865</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1724924504052233</v>
+        <v>0.1724924504052234</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2195954558553059</v>
+        <v>0.2129277735827119</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1870555468391128</v>
+        <v>0.1771300619196996</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1957479096014648</v>
+        <v>0.19657367976862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1285268909099387</v>
+        <v>0.1325107411252912</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1868016921763498</v>
+        <v>0.1875138203682542</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1860277658790342</v>
+        <v>0.1875666407274457</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.130159681737828</v>
+        <v>0.1290327691704572</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1217513728458744</v>
+        <v>0.1263675091836746</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2183351646643617</v>
+        <v>0.2197022342078013</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1999215530683662</v>
+        <v>0.1967455440269016</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1777412539087236</v>
+        <v>0.1772952575217825</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1427735379014187</v>
+        <v>0.1419144793092564</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3002782778316301</v>
+        <v>0.2928879822608009</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2740442628301706</v>
+        <v>0.2688508855904244</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2886917615543227</v>
+        <v>0.2906428092194469</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2320582547809801</v>
+        <v>0.2360412056665397</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2810849920954366</v>
+        <v>0.2836556579089459</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2991540257902873</v>
+        <v>0.2982968063958588</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2179075591822484</v>
+        <v>0.217940807218226</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2082266501360583</v>
+        <v>0.2200143884187733</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2820108310541019</v>
+        <v>0.2765860489974875</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2685026902281544</v>
+        <v>0.2689917505027255</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2402103089215973</v>
+        <v>0.2425297191215632</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2127515703895221</v>
+        <v>0.2135816146823638</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2475594339218996</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2062301772574238</v>
+        <v>0.2062301772574239</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2299872448111655</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.192911468522501</v>
+        <v>0.1911372053836163</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1985402865855061</v>
+        <v>0.1982381112370047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2055529429826188</v>
+        <v>0.2085116372630103</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1700219060383462</v>
+        <v>0.1722279217081948</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1854097006130887</v>
+        <v>0.181415991167804</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2079069703498071</v>
+        <v>0.2060125160274022</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1841363456372916</v>
+        <v>0.1814751679064859</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1863055411738626</v>
+        <v>0.1885833246220301</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1954262465220783</v>
+        <v>0.198818164535281</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2077402101821466</v>
+        <v>0.2081983022894928</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2070110838578796</v>
+        <v>0.2094189372720889</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1875786039008255</v>
+        <v>0.1879465559971073</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2616617873075527</v>
+        <v>0.2604399395085895</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2794710560112106</v>
+        <v>0.2838964324243743</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2883494214300949</v>
+        <v>0.2901796492738966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2447038980210834</v>
+        <v>0.246252496751513</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2868741154435602</v>
+        <v>0.2796494844405557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3176214719071834</v>
+        <v>0.3130848070194349</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2752443837681481</v>
+        <v>0.2759884426366843</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2589342901732903</v>
+        <v>0.2590999772165323</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.255542919219672</v>
+        <v>0.2570763007948154</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2751077579900054</v>
+        <v>0.2758871247521215</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2712465854426193</v>
+        <v>0.2673549490466536</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2378829492056975</v>
+        <v>0.2409534989880119</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2171541680168327</v>
+        <v>0.218532134770901</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2017110513133046</v>
+        <v>0.2084966580040913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2056427359387789</v>
+        <v>0.2020544739619006</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1878429812331847</v>
+        <v>0.1820133417234537</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1628771103626084</v>
+        <v>0.1621984388949654</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.138012056304388</v>
+        <v>0.1262999273620717</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.180221341482659</v>
+        <v>0.1798572747558807</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2519722182871511</v>
+        <v>0.2467873158839897</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2121992435173384</v>
+        <v>0.2075674203200349</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1877302172635459</v>
+        <v>0.1890351347682749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2087246489844109</v>
+        <v>0.2098866632268706</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2243416676071041</v>
+        <v>0.2241839990665617</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3031442145480406</v>
+        <v>0.3033518574407905</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.293056532987527</v>
+        <v>0.3023502093042307</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3051135302626235</v>
+        <v>0.2967813335286367</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.263460820184284</v>
+        <v>0.256965957461427</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2906034022587965</v>
+        <v>0.2870097463800804</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2431986684255515</v>
+        <v>0.2379787633882529</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2858897153590795</v>
+        <v>0.2962138860920572</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3167971144349824</v>
+        <v>0.3177399114042662</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2827273722491916</v>
+        <v>0.2834403569362844</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2584894469792777</v>
+        <v>0.2608513744342942</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2795965633510162</v>
+        <v>0.278230249143591</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2751921076002898</v>
+        <v>0.2755425670936283</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2741050911754727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2221903367009901</v>
+        <v>0.22219033670099</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2163639262644109</v>
@@ -1241,7 +1241,7 @@
         <v>0.2830506625455297</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2410097410308031</v>
+        <v>0.2410097410308032</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2184476901435046</v>
+        <v>0.2170326546666821</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2148944632845396</v>
+        <v>0.2097852788059803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2091709528152871</v>
+        <v>0.2012797465710449</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1781335756646935</v>
+        <v>0.1795311998596295</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.123773878387146</v>
+        <v>0.1242826342078775</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2439383029162766</v>
+        <v>0.2283310287000529</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2126830078397986</v>
+        <v>0.2021812684271747</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2260627676079911</v>
+        <v>0.2238501297145048</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2108876957719258</v>
+        <v>0.2082465353000823</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2448476895544855</v>
+        <v>0.2416695666623831</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.221530735873881</v>
+        <v>0.2226343459858269</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2098166867021499</v>
+        <v>0.2077410286353259</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3493163800698336</v>
+        <v>0.3583656838184113</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3577259197813067</v>
+        <v>0.3549592194165182</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.362553111688365</v>
+        <v>0.3462525375193277</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.266598112191573</v>
+        <v>0.2645517569164292</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3416648073619314</v>
+        <v>0.323525799441414</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4866808608188705</v>
+        <v>0.4701616402042358</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4151996858647433</v>
+        <v>0.4045605849083416</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.319286012831374</v>
+        <v>0.3125424269818776</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.326031362117418</v>
+        <v>0.3224661494513241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3691962393165681</v>
+        <v>0.3670567186521808</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3393571390131973</v>
+        <v>0.3416468275359567</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2740628271124697</v>
+        <v>0.2747524643030092</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2297025264149159</v>
+        <v>0.2298580422979298</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2125445471512885</v>
+        <v>0.2123155007848798</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2247366512940046</v>
+        <v>0.2256379653639032</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1808250150466162</v>
+        <v>0.1820829065135046</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.200763814709158</v>
+        <v>0.2001410953621193</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1832841962573031</v>
+        <v>0.188551470116963</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2108939069838283</v>
+        <v>0.2118009173695616</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2238944680687245</v>
+        <v>0.2227381927725881</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2139274417809307</v>
+        <v>0.2133683933722913</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2142902127087856</v>
+        <v>0.2156582493256609</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.202258302193462</v>
+        <v>0.2005034921627875</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2689433153474647</v>
+        <v>0.2708550109995698</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2594660172766163</v>
+        <v>0.2573109262362364</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2710664871548627</v>
+        <v>0.2719117447321361</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2215816824503264</v>
+        <v>0.2209367630225918</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2576924989807757</v>
+        <v>0.2608902432957688</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.23380201608937</v>
+        <v>0.2400859162336727</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.25122116085745</v>
+        <v>0.2510245173414424</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2542072825524936</v>
+        <v>0.2548757393765992</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2511997227915221</v>
+        <v>0.2507025203519887</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2502240950755107</v>
+        <v>0.2501572597420076</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2298435735211385</v>
+        <v>0.2295663546316475</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35907</v>
+        <v>35273</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5479</v>
+        <v>5147</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10241</v>
+        <v>10811</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2663</v>
+        <v>2467</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12482</v>
+        <v>13107</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4996</v>
+        <v>5030</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6677</v>
+        <v>5785</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7454</v>
+        <v>8252</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>53004</v>
+        <v>52348</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>13110</v>
+        <v>13129</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19069</v>
+        <v>20481</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15009</v>
+        <v>14978</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>59080</v>
+        <v>58985</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18179</v>
+        <v>18071</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25590</v>
+        <v>26007</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21937</v>
+        <v>21027</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28204</v>
+        <v>29320</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17120</v>
+        <v>17599</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18439</v>
+        <v>18256</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26143</v>
+        <v>26898</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>81108</v>
+        <v>82783</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29556</v>
+        <v>30406</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>39005</v>
+        <v>39955</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>41596</v>
+        <v>41475</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>122159</v>
+        <v>118450</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>71768</v>
+        <v>67960</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>66976</v>
+        <v>67259</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>50086</v>
+        <v>51638</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>63303</v>
+        <v>63544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>51565</v>
+        <v>51992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35627</v>
+        <v>35318</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>38035</v>
+        <v>39477</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>195446</v>
+        <v>196670</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>132121</v>
+        <v>130022</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>109466</v>
+        <v>109191</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>100239</v>
+        <v>99636</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>167042</v>
+        <v>162931</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>105143</v>
+        <v>103151</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>98778</v>
+        <v>99445</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>90431</v>
+        <v>91983</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95253</v>
+        <v>96124</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>82923</v>
+        <v>82685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>59645</v>
+        <v>59654</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>65049</v>
+        <v>68732</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>252447</v>
+        <v>247590</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>177444</v>
+        <v>177767</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>147939</v>
+        <v>149368</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>149370</v>
+        <v>149953</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>108067</v>
+        <v>107073</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>84608</v>
+        <v>84480</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>93928</v>
+        <v>95280</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>90668</v>
+        <v>91845</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>56466</v>
+        <v>55250</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>59207</v>
+        <v>58667</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>58101</v>
+        <v>57261</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>73184</v>
+        <v>74079</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>168992</v>
+        <v>171925</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>147688</v>
+        <v>148014</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>159913</v>
+        <v>161773</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>173715</v>
+        <v>174056</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>146581</v>
+        <v>145896</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>119097</v>
+        <v>120983</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>131762</v>
+        <v>132598</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>130494</v>
+        <v>131320</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>87367</v>
+        <v>85166</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>90451</v>
+        <v>89159</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>86848</v>
+        <v>87083</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>101714</v>
+        <v>101779</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>220977</v>
+        <v>222303</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>195582</v>
+        <v>196136</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>209534</v>
+        <v>206527</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>220301</v>
+        <v>223145</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>93853</v>
+        <v>94449</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>73955</v>
+        <v>76443</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>74773</v>
+        <v>73469</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>101393</v>
+        <v>98246</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27529</v>
+        <v>27415</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>31248</v>
+        <v>28597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>43635</v>
+        <v>43547</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>113021</v>
+        <v>110695</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>127578</v>
+        <v>124793</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>111335</v>
+        <v>112109</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>126431</v>
+        <v>127134</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>221721</v>
+        <v>221566</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>131018</v>
+        <v>131108</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>107446</v>
+        <v>110853</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>110942</v>
+        <v>107912</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>142210</v>
+        <v>138704</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>49117</v>
+        <v>48510</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>55065</v>
+        <v>53883</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>69220</v>
+        <v>71720</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>142097</v>
+        <v>142520</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>169980</v>
+        <v>170409</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>153299</v>
+        <v>154700</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>169360</v>
+        <v>168532</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>271978</v>
+        <v>272324</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35639</v>
+        <v>35408</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>33814</v>
+        <v>33010</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>34224</v>
+        <v>32932</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>57742</v>
+        <v>58195</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7957</v>
+        <v>7989</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17000</v>
+        <v>15913</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>22042</v>
+        <v>20954</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>52215</v>
+        <v>51704</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>47963</v>
+        <v>47362</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>55590</v>
+        <v>54869</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>59205</v>
+        <v>59500</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>116475</v>
+        <v>115323</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>56990</v>
+        <v>58467</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>56289</v>
+        <v>55853</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>59319</v>
+        <v>56652</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>86418</v>
+        <v>85755</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21964</v>
+        <v>20798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>33917</v>
+        <v>32766</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>43031</v>
+        <v>41929</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>73747</v>
+        <v>72190</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>74150</v>
+        <v>73339</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>83823</v>
+        <v>83337</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>90695</v>
+        <v>91306</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>152140</v>
+        <v>152523</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>433770</v>
+        <v>434063</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>300897</v>
+        <v>300573</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>315609</v>
+        <v>316875</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>340979</v>
+        <v>343351</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>189898</v>
+        <v>189309</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>188208</v>
+        <v>193617</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>310991</v>
+        <v>312328</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>650691</v>
+        <v>647331</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>505204</v>
+        <v>503884</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>520986</v>
+        <v>524312</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>679652</v>
+        <v>673755</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>507872</v>
+        <v>511482</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>367323</v>
+        <v>364272</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>380673</v>
+        <v>381860</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>417833</v>
+        <v>416617</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>243746</v>
+        <v>246770</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>240083</v>
+        <v>246536</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>370459</v>
+        <v>370169</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>738787</v>
+        <v>740730</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>593225</v>
+        <v>592051</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>608349</v>
+        <v>608186</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>772347</v>
+        <v>771416</v>
       </c>
     </row>
     <row r="28">
